--- a/biology/Médecine/Nicolas_de_Blégny/Nicolas_de_Blégny.xlsx
+++ b/biology/Médecine/Nicolas_de_Blégny/Nicolas_de_Blégny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas_de_Bl%C3%A9gny</t>
+          <t>Nicolas_de_Blégny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas de Blégny, né en 1652 et mort en 1722, est un essayiste, historien et chirurgien français. Il fut nommé chirurgien de la reine en 1678, puis médecin du roi en 1682.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas_de_Bl%C3%A9gny</t>
+          <t>Nicolas_de_Blégny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il publia de nombreux travaux, qui lui valurent quelques violentes critiques, sur divers sujets de médecine et sur le café, le thé et le chocolat, tel Le bon usage du thé, du caffé et du chocolat pour la preservation &amp; pour la guerison des maladies en 1687[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publia de nombreux travaux, qui lui valurent quelques violentes critiques, sur divers sujets de médecine et sur le café, le thé et le chocolat, tel Le bon usage du thé, du caffé et du chocolat pour la preservation &amp; pour la guerison des maladies en 1687.
 Il fut également le créateur du premier journal médical, les Nouvelles découvertes sur toutes les parties de la médecine, dès 1679. Il publie également Le livre commode des adresses de Paris pour 1692 sous le pseudonyme d'Abraham du Pradel.
 En 1689, il ouvre une clinique, dans la rue de la Folie-Méricourt, ou il soigne les malades atteints de tumeurs, de la goutte et de l'asthme
 Il est arrêté en 1693 pour quelques malversations et meurt en disgrâce en 1722. Il est le frère d'Étienne de Blégny, un maître écrivain assez célèbre.
